--- a/Dosificador/Documentos/Solicitud de Graduacion (SOLGRA).xlsx
+++ b/Dosificador/Documentos/Solicitud de Graduacion (SOLGRA).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\ProyectoProgramcionIII\FilesProcess\ProyectoFinalProgramacionIII\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JuanjoFolder\UNIAJC\programacion3\ProyectoFinal\Dosificador\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C6D3DD-4DB1-48E4-8981-4073AFADEE40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60917093-6FD4-4655-A54F-BB6B4EDCE73D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{D71FA089-0F05-4A0A-ACA4-AAFFD278911E}"/>
+    <workbookView xWindow="2070" yWindow="3450" windowWidth="20910" windowHeight="11835" xr2:uid="{D71FA089-0F05-4A0A-ACA4-AAFFD278911E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="80">
   <si>
     <t>tipo_ceremonia</t>
   </si>
@@ -268,6 +270,9 @@
   </si>
   <si>
     <t>Solicitud_de_graduacion(SOLGRA)</t>
+  </si>
+  <si>
+    <t>SOLGRA</t>
   </si>
 </sst>
 </file>
@@ -275,7 +280,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -308,7 +313,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,7 +332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -623,877 +628,884 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39E7C90-F7D5-4DA0-981A-B68A4F7E4096}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>75</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2">
         <f ca="1">RANDBETWEEN(0,9999)</f>
-        <v>3539</v>
-      </c>
-      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f ca="1">RANDBETWEEN(3100000000,3199999999)</f>
-        <v>3186192564</v>
-      </c>
-      <c r="H2" t="s">
+        <v>3179251147</v>
+      </c>
+      <c r="I2" t="s">
         <v>50</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>67</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>69</v>
       </c>
-      <c r="K2" t="s">
-        <v>77</v>
-      </c>
       <c r="L2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="1">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="1">
         <f ca="1">RANDBETWEEN(DATE(2020,1,30),DATE(2020,7,30))</f>
-        <v>43883</v>
-      </c>
-      <c r="N2">
+        <v>44022</v>
+      </c>
+      <c r="O2">
         <f ca="1">RANDBETWEEN(1144211277,1144999999)</f>
-        <v>1144636779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:A18" ca="1" si="0">RANDBETWEEN(0,9999)</f>
-        <v>8422</v>
-      </c>
-      <c r="B3" t="s">
+        <v>1144565753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f t="shared" ref="B3:B18" ca="1" si="0">RANDBETWEEN(0,9999)</f>
+        <v>2476</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G18" ca="1" si="1">RANDBETWEEN(3100000000,3199999999)</f>
-        <v>3189333379</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <f t="shared" ref="H3:H18" ca="1" si="1">RANDBETWEEN(3100000000,3199999999)</f>
+        <v>3136226577</v>
+      </c>
+      <c r="I3" t="s">
         <v>51</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>68</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>70</v>
       </c>
-      <c r="K3" t="s">
-        <v>77</v>
-      </c>
       <c r="L3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M18" ca="1" si="2">RANDBETWEEN(DATE(2020,1,30),DATE(2020,7,30))</f>
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N18" ca="1" si="2">RANDBETWEEN(DATE(2020,1,30),DATE(2020,7,30))</f>
         <v>43980</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N18" ca="1" si="3">RANDBETWEEN(1144211277,1144999999)</f>
-        <v>1144965785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="O3">
+        <f t="shared" ref="O3:O18" ca="1" si="3">RANDBETWEEN(1144211277,1144999999)</f>
+        <v>1144513608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>7585</v>
-      </c>
-      <c r="B4" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>3181405939</v>
-      </c>
-      <c r="H4" t="s">
+        <v>3186554684</v>
+      </c>
+      <c r="I4" t="s">
         <v>52</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
-        <v>77</v>
-      </c>
       <c r="L4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="1">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43898</v>
-      </c>
-      <c r="N4">
+        <v>44036</v>
+      </c>
+      <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>1144687461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>1144297647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>2802</v>
-      </c>
-      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>3193933763</v>
-      </c>
-      <c r="H5" t="s">
+        <v>3159503557</v>
+      </c>
+      <c r="I5" t="s">
         <v>53</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>62</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
       <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43965</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="3"/>
-        <v>1144316941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5261</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="1"/>
-        <v>3197345844</v>
-      </c>
-      <c r="H6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>44039</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1144909584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9515</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="1"/>
-        <v>3134246757</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43895</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1144337897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" ca="1" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="1"/>
-        <v>3107625213</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43988</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="3"/>
-        <v>1144849119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9969</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="1"/>
-        <v>3141236867</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43921</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="3"/>
-        <v>1144933779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1610</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3151762773</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43902</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ca="1" si="3"/>
-        <v>1144956187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" ca="1" si="0"/>
-        <v>7602</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3101235818</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="1">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>43964</v>
       </c>
-      <c r="N11">
+      <c r="O5">
         <f t="shared" ca="1" si="3"/>
-        <v>1144501253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>1144297689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>5491</v>
-      </c>
-      <c r="B12" t="s">
+        <v>4847</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="1"/>
+        <v>3147850872</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43940</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1144617294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>9158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3180423100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43956</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="3"/>
+        <v>1144586480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9484</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3190273804</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>44014</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="3"/>
+        <v>1144528617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2443</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="1"/>
+        <v>3120782608</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43935</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1144563907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1276</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3179690569</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43933</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="3"/>
+        <v>1144733197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="1"/>
+        <v>3142714660</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43918</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ca="1" si="3"/>
+        <v>1144700162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>8666</v>
+      </c>
       <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>48</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>3150996264</v>
-      </c>
-      <c r="H12" t="s">
+        <v>3139376517</v>
+      </c>
+      <c r="I12" t="s">
         <v>52</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>61</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>70</v>
       </c>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
       <c r="L12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="1">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43988</v>
-      </c>
-      <c r="N12">
+        <v>43995</v>
+      </c>
+      <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>1144551128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>1144775153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>8657</v>
-      </c>
-      <c r="B13" t="s">
+        <v>9268</v>
+      </c>
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>3185164930</v>
-      </c>
-      <c r="H13" t="s">
+        <v>3146197600</v>
+      </c>
+      <c r="I13" t="s">
         <v>56</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>62</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>71</v>
       </c>
-      <c r="K13" t="s">
-        <v>77</v>
-      </c>
       <c r="L13" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="1">
+        <v>77</v>
+      </c>
+      <c r="M13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44013</v>
-      </c>
-      <c r="N13">
+        <v>43963</v>
+      </c>
+      <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>1144968530</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <v>1144870789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>9633</v>
-      </c>
-      <c r="B14" t="s">
+        <v>8853</v>
+      </c>
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>44</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>3126803956</v>
-      </c>
-      <c r="H14" t="s">
+        <v>3117786190</v>
+      </c>
+      <c r="I14" t="s">
         <v>57</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>63</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>69</v>
       </c>
-      <c r="K14" t="s">
-        <v>77</v>
-      </c>
       <c r="L14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="1">
+        <v>77</v>
+      </c>
+      <c r="M14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43903</v>
-      </c>
-      <c r="N14">
+        <v>43926</v>
+      </c>
+      <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>1144427806</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
+        <v>1144575341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7835</v>
-      </c>
-      <c r="B15" t="s">
+        <v>7375</v>
+      </c>
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>45</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>3130147295</v>
-      </c>
-      <c r="H15" t="s">
+        <v>3156203122</v>
+      </c>
+      <c r="I15" t="s">
         <v>58</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>64</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>70</v>
       </c>
-      <c r="K15" t="s">
-        <v>77</v>
-      </c>
       <c r="L15" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" s="1">
+        <v>77</v>
+      </c>
+      <c r="M15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>43860</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>1144751505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <v>1144301470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>3943</v>
-      </c>
-      <c r="B16" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>46</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>3152140423</v>
-      </c>
-      <c r="H16" t="s">
+        <v>3158839621</v>
+      </c>
+      <c r="I16" t="s">
         <v>59</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>65</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>71</v>
       </c>
-      <c r="K16" t="s">
-        <v>77</v>
-      </c>
       <c r="L16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="1">
+        <v>77</v>
+      </c>
+      <c r="M16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43999</v>
-      </c>
-      <c r="N16">
+        <v>43922</v>
+      </c>
+      <c r="O16">
         <f t="shared" ca="1" si="3"/>
-        <v>1144628656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <v>1144221844</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>8495</v>
-      </c>
-      <c r="B17" t="s">
+        <v>8027</v>
+      </c>
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>47</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>3161383953</v>
-      </c>
-      <c r="H17" t="s">
+        <v>3102074957</v>
+      </c>
+      <c r="I17" t="s">
         <v>60</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>66</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>69</v>
       </c>
-      <c r="K17" t="s">
-        <v>77</v>
-      </c>
       <c r="L17" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" s="1">
+        <v>77</v>
+      </c>
+      <c r="M17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43923</v>
-      </c>
-      <c r="N17">
+        <v>43996</v>
+      </c>
+      <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>1144831316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <v>1144331960</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>2095</v>
-      </c>
-      <c r="B18" t="s">
+        <v>7265</v>
+      </c>
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>40</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>48</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>3158363606</v>
-      </c>
-      <c r="H18" t="s">
+        <v>3118423586</v>
+      </c>
+      <c r="I18" t="s">
         <v>52</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>65</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>70</v>
       </c>
-      <c r="K18" t="s">
-        <v>77</v>
-      </c>
       <c r="L18" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" s="1">
+        <v>77</v>
+      </c>
+      <c r="M18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43950</v>
-      </c>
-      <c r="N18">
+        <v>44031</v>
+      </c>
+      <c r="O18">
         <f t="shared" ca="1" si="3"/>
-        <v>1144551404</v>
+        <v>1144591243</v>
       </c>
     </row>
   </sheetData>
